--- a/data.xlsx
+++ b/data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="60">
   <si>
     <t>Mahasiswa</t>
   </si>
@@ -167,6 +167,9 @@
     <t>data akan diambil dan dimasukkan pada tabel temp</t>
   </si>
   <si>
+    <t>data diambil dan diacak, pengacakan adalah proses untuk membangkitkan populasi</t>
+  </si>
+  <si>
     <t>Mhs</t>
   </si>
   <si>
@@ -182,10 +185,16 @@
     <t>&gt;&gt;&gt;&gt;</t>
   </si>
   <si>
+    <t>apa f=1?</t>
+  </si>
+  <si>
+    <t>Y&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
     <t>mutasi</t>
   </si>
   <si>
-    <t>&gt;&gt;&gt;&gt;&gt;</t>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -193,10 +202,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -210,21 +219,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,11 +239,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,13 +284,22 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -292,20 +324,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -313,7 +331,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -327,7 +345,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -335,19 +352,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -372,19 +381,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -396,13 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -414,13 +465,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,115 +507,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,15 +566,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -584,6 +584,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -595,24 +619,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,17 +649,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -662,142 +671,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -879,6 +888,60 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>218440</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285115</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Elbow Connector 1"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="3647440" y="4972050"/>
+          <a:ext cx="2124075" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 209"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1139,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W37"/>
+  <dimension ref="A1:W38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1730,708 +1793,720 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:16">
-      <c r="B17" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
         <v>50</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="2:16">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
         <v>47</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>47</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>47</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" t="s">
         <v>51</v>
       </c>
-      <c r="L17" t="s">
-        <v>50</v>
-      </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>47</v>
       </c>
-      <c r="N17" t="s">
+      <c r="N18" t="s">
         <v>47</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O18" t="s">
         <v>47</v>
       </c>
-      <c r="P17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" t="s">
-        <v>25</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P18">
-        <v>1</v>
+      <c r="P18" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O19" t="s">
-        <v>26</v>
-      </c>
-      <c r="P19" t="s">
-        <v>52</v>
+        <v>1</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="P19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="O20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="O21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" t="s">
+        <v>28</v>
+      </c>
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
         <v>5</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E23" t="s">
         <v>29</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>5</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N23" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="O22" t="s">
+      <c r="O23" t="s">
         <v>29</v>
       </c>
-      <c r="P22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K23">
-        <v>6</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O23" t="s">
-        <v>30</v>
+      <c r="P23" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:15">
       <c r="A24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E24" t="s">
-        <v>31</v>
-      </c>
-      <c r="K24">
-        <v>7</v>
-      </c>
-      <c r="L24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="N24" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="O24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:15">
       <c r="A25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26">
+        <v>8</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="G26" t="s">
-        <v>53</v>
-      </c>
-      <c r="H26" t="s">
-        <v>54</v>
-      </c>
-      <c r="I26" t="s">
-        <v>55</v>
-      </c>
-      <c r="J26" t="s">
-        <v>56</v>
-      </c>
-      <c r="K26">
-        <v>9</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="M26" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:15">
       <c r="A27">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>54</v>
+      </c>
+      <c r="H27" t="s">
+        <v>55</v>
+      </c>
+      <c r="I27" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>9</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K27">
-        <v>10</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="N27" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:15">
       <c r="A28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:15">
       <c r="A29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:15">
       <c r="A30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K30">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="O30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:15">
       <c r="A31">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="E31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31">
+        <v>13</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K31">
-        <v>14</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M31" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N31" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="O31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:15">
       <c r="A32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="O32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:15">
       <c r="A33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>59</v>
       </c>
       <c r="K33">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O33" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:15">
       <c r="A34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K34">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O34" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:15">
       <c r="A35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="O35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:15">
       <c r="A36">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36">
+        <v>18</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M36" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K36">
-        <v>19</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="N36" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:15">
       <c r="A37">
+        <v>19</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37">
+        <v>19</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38">
         <v>20</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>44</v>
       </c>
-      <c r="K37">
+      <c r="K38">
         <v>20</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M38" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O37" t="s">
+      <c r="O38" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2457,8 +2532,8 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.0148593651876967</v>
+        <f ca="1" t="shared" ref="E1:E20" si="0">RAND()</f>
+        <v>0.757806153027508</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2469,8 +2544,8 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.202227504004355</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.2175282881758</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2481,8 +2556,8 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.0521499334314541</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.167581646967027</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2493,8 +2568,8 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.742487945775967</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.973920958004996</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2505,8 +2580,8 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.736077711746316</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.869825929184885</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2517,8 +2592,8 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.276201088513595</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.241189072177115</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2529,8 +2604,8 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.634354408026737</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.816147581826135</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2541,8 +2616,8 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.526058823216026</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.160337121335063</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2553,8 +2628,8 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.376910418226694</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.345482413280697</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2565,8 +2640,8 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.281268655893615</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.566089125461276</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2577,8 +2652,8 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.483178485808855</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.00839387816302839</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2589,8 +2664,8 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.877624339809476</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.460783063153581</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2601,8 +2676,8 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.046661124866666</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.381496986966067</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2613,8 +2688,8 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.585937618886468</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.790455323976229</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2625,8 +2700,8 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.972835626643086</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.359754701587214</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2637,8 +2712,8 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.738161946209496</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.223607498505351</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2649,8 +2724,8 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.898859698789865</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.81471725838311</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2661,8 +2736,8 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.426069569551275</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.908133322180785</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2673,8 +2748,8 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.527777558896659</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.407359707597223</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2685,8 +2760,8 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1">
-        <f ca="1">RAND()</f>
-        <v>0.586566662962152</v>
+        <f ca="1" t="shared" si="0"/>
+        <v>0.462598676938163</v>
       </c>
     </row>
   </sheetData>
